--- a/Eco shelter project/logger data.xlsx
+++ b/Eco shelter project/logger data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>microsite</t>
   </si>
@@ -47,10 +47,28 @@
     <t>open 2</t>
   </si>
   <si>
-    <t xml:space="preserve">open </t>
-  </si>
-  <si>
     <t xml:space="preserve">burlap </t>
+  </si>
+  <si>
+    <t>canvas 3</t>
+  </si>
+  <si>
+    <t>open 3</t>
+  </si>
+  <si>
+    <t>open 4</t>
+  </si>
+  <si>
+    <t>burlap 2</t>
+  </si>
+  <si>
+    <t>open 5</t>
+  </si>
+  <si>
+    <t>burlap 3</t>
+  </si>
+  <si>
+    <t>open 6</t>
   </si>
 </sst>
 </file>
@@ -377,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,7 +460,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>20881726</v>
@@ -453,13 +471,79 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>20884543</v>
       </c>
       <c r="C7">
         <v>15531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>20881739</v>
+      </c>
+      <c r="C8">
+        <v>15531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>20881725</v>
+      </c>
+      <c r="C9">
+        <v>15512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>20881733</v>
+      </c>
+      <c r="C10">
+        <v>15406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>20881753</v>
+      </c>
+      <c r="C11">
+        <v>15402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>20884543</v>
+      </c>
+      <c r="C12">
+        <v>15489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>20881726</v>
+      </c>
+      <c r="C13">
+        <v>15491</v>
       </c>
     </row>
   </sheetData>

--- a/Eco shelter project/logger data.xlsx
+++ b/Eco shelter project/logger data.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12130" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Trial 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Trial 3" sheetId="3" r:id="rId3"/>
+    <sheet name="trial 4" sheetId="4" r:id="rId4"/>
+    <sheet name="trial 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t>microsite</t>
   </si>
@@ -69,6 +73,30 @@
   </si>
   <si>
     <t>open 6</t>
+  </si>
+  <si>
+    <t>nursery 1</t>
+  </si>
+  <si>
+    <t>nursery 2</t>
+  </si>
+  <si>
+    <t>nursery 3</t>
+  </si>
+  <si>
+    <t>1 seed/cm2</t>
+  </si>
+  <si>
+    <t>2 seeds/cm2</t>
+  </si>
+  <si>
+    <t>2 seeds cm/2</t>
+  </si>
+  <si>
+    <t>burlap 1</t>
+  </si>
+  <si>
+    <t>larrea 1</t>
   </si>
 </sst>
 </file>
@@ -397,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,4 +578,387 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>20881739</v>
+      </c>
+      <c r="C2">
+        <v>15531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20881725</v>
+      </c>
+      <c r="C3">
+        <v>15512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>20881733</v>
+      </c>
+      <c r="C4">
+        <v>15406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>20881753</v>
+      </c>
+      <c r="C5">
+        <v>15402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>29884543</v>
+      </c>
+      <c r="C6">
+        <v>15489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>20881726</v>
+      </c>
+      <c r="C7">
+        <v>15491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>20881733</v>
+      </c>
+      <c r="C2">
+        <v>15512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>20884543</v>
+      </c>
+      <c r="C3">
+        <v>15489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>20881726</v>
+      </c>
+      <c r="C4">
+        <v>15531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>10641606</v>
+      </c>
+      <c r="C5">
+        <v>15531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>20881725</v>
+      </c>
+      <c r="C6">
+        <v>15491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>20881726</v>
+      </c>
+      <c r="C7">
+        <v>15406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>20884543</v>
+      </c>
+      <c r="C2">
+        <v>15512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>20881753</v>
+      </c>
+      <c r="C3">
+        <v>15531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>10641606</v>
+      </c>
+      <c r="C4">
+        <v>15406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>29881733</v>
+      </c>
+      <c r="C5">
+        <v>15489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>20881725</v>
+      </c>
+      <c r="C6">
+        <v>15402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>20881726</v>
+      </c>
+      <c r="C7">
+        <v>15491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>20881733</v>
+      </c>
+      <c r="C2">
+        <v>15489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>20881753</v>
+      </c>
+      <c r="C3">
+        <v>15512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>15406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>20884543</v>
+      </c>
+      <c r="C5">
+        <v>15531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>20881725</v>
+      </c>
+      <c r="C6">
+        <v>15402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>20881726</v>
+      </c>
+      <c r="C7">
+        <v>155491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Eco shelter project/logger data.xlsx
+++ b/Eco shelter project/logger data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12130" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12130" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Trial 3" sheetId="3" r:id="rId3"/>
     <sheet name="trial 4" sheetId="4" r:id="rId4"/>
     <sheet name="trial 5" sheetId="5" r:id="rId5"/>
+    <sheet name="trial 6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>microsite</t>
   </si>
@@ -97,6 +98,12 @@
   </si>
   <si>
     <t>larrea 1</t>
+  </si>
+  <si>
+    <t>open1</t>
+  </si>
+  <si>
+    <t>L1</t>
   </si>
 </sst>
 </file>
@@ -875,6 +882,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>20881733</v>
+      </c>
+      <c r="C2">
+        <v>15489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20881753</v>
+      </c>
+      <c r="C3">
+        <v>15512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>15406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>20884543</v>
+      </c>
+      <c r="C5">
+        <v>15531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>20881725</v>
+      </c>
+      <c r="C6">
+        <v>15402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>20881726</v>
+      </c>
+      <c r="C7">
+        <v>15491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
@@ -897,18 +996,18 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>20881733</v>
+        <v>20881725</v>
       </c>
       <c r="C2">
-        <v>15489</v>
+        <v>15406</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>20881753</v>
+        <v>20881726</v>
       </c>
       <c r="C3">
         <v>15512</v>
@@ -916,32 +1015,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>15406</v>
+        <v>15289</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>20884543</v>
       </c>
       <c r="C5">
-        <v>15531</v>
+        <v>15491</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>20881725</v>
+        <v>20881753</v>
       </c>
       <c r="C6">
         <v>15402</v>
@@ -949,13 +1048,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>20881726</v>
+        <v>20881733</v>
       </c>
       <c r="C7">
-        <v>155491</v>
+        <v>15531</v>
       </c>
     </row>
   </sheetData>
